--- a/data/Broadband_Adoption_and_Infrastructure_by_Council_District_DataDictionary.xlsx
+++ b/data/Broadband_Adoption_and_Infrastructure_by_Council_District_DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\OpenData\Data Dictionaries\MOCTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wesch\OneDrive\20 Spring Summer Urban Science Intensive\nyconnect\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE61167F-C628-4836-B935-C2F8F3CE7890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7671E344-2681-4031-A186-76D4DFE26B71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="390" windowWidth="26385" windowHeight="14310" activeTab="1" xr2:uid="{E67C178D-17CB-4A66-BFB7-DA2406A68CB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{E67C178D-17CB-4A66-BFB7-DA2406A68CB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Workbook Information" sheetId="1" r:id="rId1"/>
@@ -2282,25 +2282,25 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="48"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="49" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="49"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2332,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>362</v>
       </c>
@@ -2353,18 +2353,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{805DA4CA-C6A5-43F1-B1A9-436341E205A1}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="58.42578125" customWidth="1"/>
+    <col min="1" max="2" width="58.44140625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A1" s="50" t="s">
         <v>16</v>
       </c>
@@ -2373,7 +2373,7 @@
       <c r="D1" s="52"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="s">
         <v>10</v>
       </c>
@@ -2403,7 +2403,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>70</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="45" t="s">
         <v>27</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="44" t="s">
         <v>84</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>74</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="45" t="s">
         <v>75</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="44" t="s">
         <v>78</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="44" t="s">
         <v>79</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="96.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>72</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>13</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>68</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>66</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>69</v>
       </c>
@@ -2653,17 +2653,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
     </row>
   </sheetData>
@@ -2683,29 +2683,29 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="72.42578125" customWidth="1"/>
+    <col min="1" max="3" width="72.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="54"/>
       <c r="B1" s="54"/>
       <c r="C1" s="54"/>
     </row>
-    <row r="2" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A2" s="55" t="s">
         <v>34</v>
       </c>
       <c r="B2" s="55"/>
       <c r="C2" s="18"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="56"/>
       <c r="B3" s="56"/>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="57" t="s">
         <v>35</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>37</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
         <v>39</v>
       </c>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="C6" s="25"/>
     </row>
-    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
         <v>41</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
         <v>44</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
         <v>46</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="s">
         <v>48</v>
       </c>
@@ -2776,14 +2776,14 @@
       </c>
       <c r="C10" s="31"/>
     </row>
-    <row r="11" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="23.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="58" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="58"/>
       <c r="C11" s="32"/>
     </row>
-    <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="53" t="s">
         <v>51</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>53</v>
       </c>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="C13" s="36"/>
     </row>
-    <row r="14" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>55</v>
       </c>
@@ -2810,7 +2810,7 @@
       </c>
       <c r="C14" s="36"/>
     </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>56</v>
       </c>
@@ -2819,7 +2819,7 @@
       </c>
       <c r="C15" s="36"/>
     </row>
-    <row r="16" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>58</v>
       </c>
@@ -2828,7 +2828,7 @@
       </c>
       <c r="C16" s="36"/>
     </row>
-    <row r="17" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>60</v>
       </c>
@@ -2837,12 +2837,12 @@
       </c>
       <c r="C17" s="36"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="39"/>
       <c r="B18" s="39"/>
       <c r="C18" s="36"/>
     </row>
-    <row r="19" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>61</v>
       </c>
@@ -2883,12 +2883,12 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>361</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>147</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>206</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>188</v>
       </c>
@@ -2944,7 +2944,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>188</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>185</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>185</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>185</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>187</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>187</v>
       </c>
@@ -2992,7 +2992,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>190</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>190</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>184</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>184</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>184</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>168</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>168</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>172</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>172</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>172</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>172</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>182</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>182</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>182</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>165</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>165</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>165</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>158</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>150</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>150</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>159</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>159</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>159</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>159</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>161</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>161</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>178</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>164</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>164</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>164</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>152</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>152</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>152</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>152</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>169</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>169</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>198</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>198</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>198</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>198</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>197</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>197</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>197</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>195</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>195</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>195</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>195</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>202</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>202</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>207</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>207</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>193</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>193</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>214</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>214</v>
       </c>
@@ -3544,7 +3544,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>214</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>208</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>208</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>186</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>186</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>186</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>186</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>176</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>176</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>176</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>175</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>175</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -3648,7 +3648,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>167</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>167</v>
       </c>
@@ -3664,7 +3664,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>157</v>
       </c>
@@ -3672,7 +3672,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>157</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>173</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>173</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>173</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>200</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>200</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>201</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>201</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>201</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>177</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>177</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>177</v>
       </c>
@@ -3768,7 +3768,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>177</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>199</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>199</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>199</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>192</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>192</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>192</v>
       </c>
@@ -3824,7 +3824,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>179</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>179</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>179</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>179</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>179</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>183</v>
       </c>
@@ -3872,7 +3872,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>183</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>213</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>213</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>213</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>216</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>216</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>216</v>
       </c>
@@ -3928,7 +3928,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>216</v>
       </c>
@@ -3936,7 +3936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>218</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>218</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>218</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>218</v>
       </c>
@@ -3968,7 +3968,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>217</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -3984,7 +3984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>163</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>163</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>163</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>194</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>194</v>
       </c>
@@ -4032,7 +4032,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>194</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>194</v>
       </c>
@@ -4048,7 +4048,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>210</v>
       </c>
@@ -4056,7 +4056,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>210</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>210</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>215</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>215</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>211</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>211</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>212</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>212</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>212</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>166</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>166</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>166</v>
       </c>
@@ -4152,7 +4152,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>166</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>166</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>166</v>
       </c>
@@ -4176,7 +4176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>166</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -4192,7 +4192,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>166</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>166</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>120</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>120</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>120</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>142</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>142</v>
       </c>
@@ -4272,7 +4272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>129</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>129</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>129</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>144</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>144</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>141</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>141</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>141</v>
       </c>
@@ -4336,7 +4336,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>105</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>105</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>105</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>96</v>
       </c>
@@ -4368,7 +4368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>96</v>
       </c>
@@ -4376,7 +4376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>96</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>132</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>138</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>138</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>106</v>
       </c>
@@ -4416,7 +4416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>106</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>106</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>106</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>126</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>126</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>139</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>122</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>122</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>122</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>115</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>115</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>115</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>133</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>133</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>133</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>136</v>
       </c>
@@ -4544,7 +4544,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>136</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>136</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>131</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>140</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>140</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>114</v>
       </c>
@@ -4592,7 +4592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>114</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>114</v>
       </c>
@@ -4608,7 +4608,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>112</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>112</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>112</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>119</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>119</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>103</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>103</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>124</v>
       </c>
@@ -4672,7 +4672,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>124</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>124</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>124</v>
       </c>
@@ -4696,7 +4696,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>124</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>98</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>98</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>130</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>130</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>128</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>128</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>128</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>146</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>143</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>143</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>143</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>125</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>125</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>127</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>127</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>118</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>102</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>102</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>113</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>113</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>145</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>145</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>110</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>110</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>110</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>110</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>108</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>108</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>108</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>108</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>94</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>101</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>101</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>101</v>
       </c>
@@ -4976,7 +4976,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>101</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>101</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>101</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>101</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>277</v>
       </c>
@@ -5016,7 +5016,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>277</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>277</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>270</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>270</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -5056,7 +5056,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>274</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>274</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>271</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>271</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>269</v>
       </c>
@@ -5104,7 +5104,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>269</v>
       </c>
@@ -5112,7 +5112,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>269</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>267</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>267</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>267</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>263</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>263</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>235</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>235</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>235</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>260</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>260</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>260</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>250</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>250</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>238</v>
       </c>
@@ -5232,7 +5232,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>238</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>238</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>238</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>241</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>241</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>241</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>241</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>237</v>
       </c>
@@ -5296,7 +5296,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>237</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>234</v>
       </c>
@@ -5312,7 +5312,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>234</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>228</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>228</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>228</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>236</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>236</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>236</v>
       </c>
@@ -5368,7 +5368,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>225</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>225</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>221</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>221</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>223</v>
       </c>
@@ -5408,7 +5408,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>223</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>220</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>220</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>220</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>220</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>246</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>246</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>253</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>253</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>253</v>
       </c>
@@ -5488,7 +5488,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>262</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>262</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>262</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>262</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>262</v>
       </c>
@@ -5528,7 +5528,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>264</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>264</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>276</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>276</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>276</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>275</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>275</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>248</v>
       </c>
@@ -5592,7 +5592,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>248</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>248</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>231</v>
       </c>
@@ -5616,7 +5616,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>231</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>219</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>219</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>219</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>219</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>219</v>
       </c>
@@ -5664,7 +5664,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>219</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>219</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>219</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>219</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>219</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>219</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>294</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>294</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>302</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>302</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>302</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>303</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>303</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>319</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>319</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>310</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>310</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>310</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>312</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>312</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>301</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>301</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>301</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>328</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>328</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>329</v>
       </c>
@@ -5872,7 +5872,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>329</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>332</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>320</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>320</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>320</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>321</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>321</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>321</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>321</v>
       </c>
@@ -5944,7 +5944,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>318</v>
       </c>
@@ -5952,7 +5952,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>318</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>317</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>317</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>317</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>315</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>315</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>315</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>323</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>323</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>327</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>327</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>309</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>309</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>307</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>307</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>306</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>300</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>300</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>300</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>300</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>299</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>299</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>299</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>313</v>
       </c>
@@ -6144,7 +6144,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>280</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>280</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>280</v>
       </c>
@@ -6168,7 +6168,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>316</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>316</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>314</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>314</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>296</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>296</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>296</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>322</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>335</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>335</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>338</v>
       </c>
@@ -6256,7 +6256,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>338</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>338</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>336</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>336</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>337</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>340</v>
       </c>
@@ -6304,7 +6304,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>339</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>339</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>333</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>333</v>
       </c>
@@ -6336,7 +6336,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>333</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>331</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>334</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>334</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>330</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>297</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>297</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>297</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>326</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>326</v>
       </c>
@@ -6416,7 +6416,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>325</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>325</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>281</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>281</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>281</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>281</v>
       </c>
@@ -6464,7 +6464,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>282</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>282</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>282</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>282</v>
       </c>
@@ -6496,7 +6496,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>288</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>288</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>288</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>284</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>284</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>286</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>286</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>286</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>286</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>292</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>292</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>292</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>295</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>295</v>
       </c>
@@ -6608,7 +6608,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>295</v>
       </c>
@@ -6616,7 +6616,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>295</v>
       </c>
@@ -6624,7 +6624,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>295</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>324</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>324</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>298</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>298</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>298</v>
       </c>
@@ -6672,7 +6672,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>298</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>304</v>
       </c>
@@ -6688,7 +6688,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>304</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>283</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>283</v>
       </c>
@@ -6712,7 +6712,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>285</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>285</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>287</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>287</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>289</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>289</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>293</v>
       </c>
@@ -6768,7 +6768,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>293</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>305</v>
       </c>
@@ -6784,7 +6784,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>305</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>305</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>305</v>
       </c>
@@ -6808,7 +6808,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>305</v>
       </c>
@@ -6816,7 +6816,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>305</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>290</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>290</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>290</v>
       </c>
@@ -6848,7 +6848,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>290</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>290</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>290</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>290</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>290</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>290</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>290</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>290</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>290</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>290</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>290</v>
       </c>
@@ -6936,7 +6936,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>353</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>355</v>
       </c>
@@ -6952,7 +6952,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>355</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>355</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>351</v>
       </c>
@@ -6976,7 +6976,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>351</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>345</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>345</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>360</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>359</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>359</v>
       </c>
@@ -7024,7 +7024,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>344</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>344</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>341</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>356</v>
       </c>
@@ -7056,7 +7056,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>356</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>356</v>
       </c>
@@ -7072,7 +7072,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>349</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>349</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>357</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>357</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>358</v>
       </c>
@@ -7112,7 +7112,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>346</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>347</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>342</v>
       </c>
@@ -7136,7 +7136,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>342</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>348</v>
       </c>
@@ -7152,7 +7152,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>354</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>350</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>350</v>
       </c>
@@ -7176,7 +7176,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>352</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>352</v>
       </c>
@@ -7193,7 +7193,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B21952">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B21952">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
